--- a/Data Analyst/detail_depresiasi.xlsx
+++ b/Data Analyst/detail_depresiasi.xlsx
@@ -2454,7 +2454,7 @@
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F571" si="1">iferror(if(E2="","",(now()-E2)/365),"")</f>
-        <v>5.11633005</v>
+        <v>5.124437924</v>
       </c>
       <c r="G2" s="12">
         <v>1.6E9</v>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" si="1"/>
-        <v>5.11633005</v>
+        <v>5.124437924</v>
       </c>
       <c r="G3" s="12">
         <v>1.6E9</v>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
-        <v>5.11633005</v>
+        <v>5.124437924</v>
       </c>
       <c r="G4" s="12">
         <v>1.6E9</v>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
-        <v>5.11633005</v>
+        <v>5.124437924</v>
       </c>
       <c r="G5" s="12">
         <v>1.6E9</v>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
-        <v>5.11633005</v>
+        <v>5.124437924</v>
       </c>
       <c r="G6" s="12">
         <v>1.6E9</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
-        <v>5.11633005</v>
+        <v>5.124437924</v>
       </c>
       <c r="G7" s="12">
         <v>1.6E9</v>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G8" s="12">
         <v>1.6E9</v>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G9" s="12">
         <v>1.6E9</v>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G10" s="12">
         <v>1.6E9</v>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G11" s="12">
         <v>1.6E9</v>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G12" s="12">
         <v>1.6E9</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="F13" s="18">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G13" s="19">
         <v>1.6E9</v>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G14" s="12">
         <v>1.6E9</v>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
-        <v>7.697151968</v>
+        <v>7.705259842</v>
       </c>
       <c r="G15" s="12">
         <v>8.36E8</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
-        <v>7.193042379</v>
+        <v>7.201150253</v>
       </c>
       <c r="G16" s="12">
         <v>8.57E8</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G17" s="12">
         <v>1.6E9</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G18" s="12">
         <v>1.6E9</v>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="F19" s="18">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G19" s="19">
         <v>1.6E9</v>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G20" s="12">
         <v>1.6E9</v>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
-        <v>6.236877995</v>
+        <v>6.244985869</v>
       </c>
       <c r="G21" s="12">
         <v>8.74E8</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
-        <v>6.236877995</v>
+        <v>6.244985869</v>
       </c>
       <c r="G22" s="12">
         <v>8.74E8</v>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G23" s="12">
         <v>1.6E9</v>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G24" s="12">
         <v>1.6E9</v>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="F25" s="18">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G25" s="19">
         <v>1.6E9</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G26" s="12">
         <v>1.6E9</v>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
-        <v>6.236877995</v>
+        <v>6.244985869</v>
       </c>
       <c r="G27" s="12">
         <v>8.74E8</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
-        <v>5.086193064</v>
+        <v>5.094300938</v>
       </c>
       <c r="G28" s="12">
         <v>1.6E9</v>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
-        <v>5.058795804</v>
+        <v>5.066903677</v>
       </c>
       <c r="G29" s="12">
         <v>1.6E9</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
-        <v>5.058795804</v>
+        <v>5.066903677</v>
       </c>
       <c r="G30" s="12">
         <v>1.6E9</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="F31" s="18">
         <f t="shared" si="1"/>
-        <v>5.058795804</v>
+        <v>5.066903677</v>
       </c>
       <c r="G31" s="19">
         <v>1.6E9</v>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
-        <v>5.058795804</v>
+        <v>5.066903677</v>
       </c>
       <c r="G32" s="12">
         <v>1.6E9</v>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
-        <v>5.058795804</v>
+        <v>5.066903677</v>
       </c>
       <c r="G33" s="12">
         <v>1.6E9</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
-        <v>5.058795804</v>
+        <v>5.066903677</v>
       </c>
       <c r="G34" s="12">
         <v>1.6E9</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
-        <v>5.058795804</v>
+        <v>5.066903677</v>
       </c>
       <c r="G35" s="12">
         <v>1.6E9</v>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
-        <v>4.924549228</v>
+        <v>4.932657102</v>
       </c>
       <c r="G36" s="12">
         <v>1.6E9</v>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
-        <v>4.924549228</v>
+        <v>4.932657102</v>
       </c>
       <c r="G37" s="12">
         <v>1.6E9</v>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
-        <v>4.93002868</v>
+        <v>4.938136554</v>
       </c>
       <c r="G38" s="12">
         <v>1.6E9</v>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="1"/>
-        <v>4.924549228</v>
+        <v>4.932657102</v>
       </c>
       <c r="G39" s="12">
         <v>1.6E9</v>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="1"/>
-        <v>4.924549228</v>
+        <v>4.932657102</v>
       </c>
       <c r="G40" s="12">
         <v>1.6E9</v>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="1"/>
-        <v>4.924549228</v>
+        <v>4.932657102</v>
       </c>
       <c r="G41" s="12">
         <v>1.6E9</v>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="1"/>
-        <v>4.924549228</v>
+        <v>4.932657102</v>
       </c>
       <c r="G42" s="12">
         <v>1.6E9</v>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="1"/>
-        <v>4.924549228</v>
+        <v>4.932657102</v>
       </c>
       <c r="G43" s="12">
         <v>1.6E9</v>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="1"/>
-        <v>4.924549228</v>
+        <v>4.932657102</v>
       </c>
       <c r="G44" s="12">
         <v>1.6E9</v>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="1"/>
-        <v>4.93002868</v>
+        <v>4.938136554</v>
       </c>
       <c r="G45" s="12">
         <v>1.6E9</v>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="1"/>
-        <v>4.93002868</v>
+        <v>4.938136554</v>
       </c>
       <c r="G46" s="12">
         <v>1.6E9</v>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="1"/>
-        <v>4.93002868</v>
+        <v>4.938136554</v>
       </c>
       <c r="G47" s="12">
         <v>1.6E9</v>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="1"/>
-        <v>4.93002868</v>
+        <v>4.938136554</v>
       </c>
       <c r="G48" s="12">
         <v>1.6E9</v>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="1"/>
-        <v>4.924549228</v>
+        <v>4.932657102</v>
       </c>
       <c r="G49" s="12">
         <v>1.6E9</v>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="1"/>
-        <v>4.93002868</v>
+        <v>4.938136554</v>
       </c>
       <c r="G50" s="12">
         <v>1.6E9</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="1"/>
-        <v>4.90263142</v>
+        <v>4.910739294</v>
       </c>
       <c r="G51" s="12">
         <v>1.6E9</v>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="1"/>
-        <v>4.897151968</v>
+        <v>4.905259842</v>
       </c>
       <c r="G52" s="12">
         <v>1.6E9</v>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="1"/>
-        <v>4.897151968</v>
+        <v>4.905259842</v>
       </c>
       <c r="G53" s="12">
         <v>1.6E9</v>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="1"/>
-        <v>4.897151968</v>
+        <v>4.905259842</v>
       </c>
       <c r="G54" s="12">
         <v>1.6E9</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="1"/>
-        <v>4.90263142</v>
+        <v>4.910739294</v>
       </c>
       <c r="G55" s="12">
         <v>1.6E9</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="1"/>
-        <v>4.8478369</v>
+        <v>4.855944773</v>
       </c>
       <c r="G56" s="12">
         <v>1.6E9</v>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="1"/>
-        <v>4.8478369</v>
+        <v>4.855944773</v>
       </c>
       <c r="G57" s="12">
         <v>1.6E9</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="1"/>
-        <v>4.8478369</v>
+        <v>4.855944773</v>
       </c>
       <c r="G58" s="12">
         <v>1.6E9</v>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="1"/>
-        <v>4.8478369</v>
+        <v>4.855944773</v>
       </c>
       <c r="G59" s="12">
         <v>1.6E9</v>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="1"/>
-        <v>4.8478369</v>
+        <v>4.855944773</v>
       </c>
       <c r="G60" s="12">
         <v>1.6E9</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="1"/>
-        <v>4.8478369</v>
+        <v>4.855944773</v>
       </c>
       <c r="G61" s="12">
         <v>1.6E9</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="1"/>
-        <v>4.8478369</v>
+        <v>4.855944773</v>
       </c>
       <c r="G62" s="12">
         <v>1.6E9</v>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="1"/>
-        <v>4.8478369</v>
+        <v>4.855944773</v>
       </c>
       <c r="G63" s="12">
         <v>1.6E9</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="1"/>
-        <v>4.8478369</v>
+        <v>4.855944773</v>
       </c>
       <c r="G64" s="12">
         <v>1.6E9</v>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="1"/>
-        <v>3.814960187</v>
+        <v>3.823068061</v>
       </c>
       <c r="G65" s="12">
         <v>1.85E9</v>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="1"/>
-        <v>3.814960187</v>
+        <v>3.823068061</v>
       </c>
       <c r="G66" s="12">
         <v>1.85E9</v>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" si="1"/>
-        <v>3.814960187</v>
+        <v>3.823068061</v>
       </c>
       <c r="G67" s="12">
         <v>1.85E9</v>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="1"/>
-        <v>3.814960187</v>
+        <v>3.823068061</v>
       </c>
       <c r="G68" s="12">
         <v>1.85E9</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="1"/>
-        <v>3.814960187</v>
+        <v>3.823068061</v>
       </c>
       <c r="G69" s="12">
         <v>1.85E9</v>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="1"/>
-        <v>3.814960187</v>
+        <v>3.823068061</v>
       </c>
       <c r="G70" s="12">
         <v>1.85E9</v>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="1"/>
-        <v>3.814960187</v>
+        <v>3.823068061</v>
       </c>
       <c r="G71" s="12">
         <v>1.85E9</v>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="1"/>
-        <v>3.814960187</v>
+        <v>3.823068061</v>
       </c>
       <c r="G72" s="12">
         <v>1.85E9</v>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="1"/>
-        <v>3.798521831</v>
+        <v>3.806629705</v>
       </c>
       <c r="G73" s="12">
         <v>1.85E9</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="1"/>
-        <v>3.798521831</v>
+        <v>3.806629705</v>
       </c>
       <c r="G74" s="12">
         <v>1.85E9</v>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="1"/>
-        <v>3.798521831</v>
+        <v>3.806629705</v>
       </c>
       <c r="G75" s="12">
         <v>1.85E9</v>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="1"/>
-        <v>3.798521831</v>
+        <v>3.806629705</v>
       </c>
       <c r="G76" s="12">
         <v>1.85E9</v>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="1"/>
-        <v>3.768384845</v>
+        <v>3.776492718</v>
       </c>
       <c r="G77" s="12">
         <v>1.85E9</v>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="1"/>
-        <v>3.768384845</v>
+        <v>3.776492718</v>
       </c>
       <c r="G78" s="12">
         <v>1.85E9</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="1"/>
-        <v>3.768384845</v>
+        <v>3.776492718</v>
       </c>
       <c r="G79" s="12">
         <v>1.85E9</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="1"/>
-        <v>3.768384845</v>
+        <v>3.776492718</v>
       </c>
       <c r="G80" s="12">
         <v>1.85E9</v>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="1"/>
-        <v>6.236877995</v>
+        <v>6.244985869</v>
       </c>
       <c r="G81" s="12">
         <v>8.74E8</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="1"/>
-        <v>6.965645119</v>
+        <v>6.973752992</v>
       </c>
       <c r="G82" s="12">
         <v>8.74E8</v>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="1"/>
-        <v>3.768384845</v>
+        <v>3.776492718</v>
       </c>
       <c r="G83" s="12">
         <v>1.85E9</v>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="1"/>
-        <v>3.768384845</v>
+        <v>3.776492718</v>
       </c>
       <c r="G84" s="12">
         <v>1.85E9</v>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="1"/>
-        <v>3.768384845</v>
+        <v>3.776492718</v>
       </c>
       <c r="G85" s="12">
         <v>1.85E9</v>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="1"/>
-        <v>3.768384845</v>
+        <v>3.776492718</v>
       </c>
       <c r="G86" s="12">
         <v>1.85E9</v>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G88" s="12">
         <v>1.85E9</v>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="1"/>
-        <v>5.67523416</v>
+        <v>5.683342033</v>
       </c>
       <c r="G90" s="12">
         <v>8.74E8</v>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="1"/>
-        <v>6.965645119</v>
+        <v>6.973752992</v>
       </c>
       <c r="G91" s="12">
         <v>8.74E8</v>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="1"/>
-        <v>6.965645119</v>
+        <v>6.973752992</v>
       </c>
       <c r="G92" s="12">
         <v>8.74E8</v>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G93" s="12">
         <v>1.85E9</v>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G94" s="12">
         <v>1.85E9</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G95" s="12">
         <v>1.85E9</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G96" s="12">
         <v>1.85E9</v>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G97" s="12">
         <v>1.85E9</v>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G98" s="12">
         <v>1.85E9</v>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G99" s="12">
         <v>1.85E9</v>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G100" s="12">
         <v>1.85E9</v>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G101" s="12">
         <v>1.85E9</v>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G102" s="12">
         <v>1.85E9</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G103" s="12">
         <v>1.85E9</v>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G104" s="12">
         <v>1.85E9</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G105" s="12">
         <v>1.85E9</v>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G106" s="12">
         <v>1.85E9</v>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G107" s="12">
         <v>1.85E9</v>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G108" s="12">
         <v>1.85E9</v>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G109" s="12">
         <v>1.85E9</v>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G110" s="12">
         <v>1.85E9</v>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="1"/>
-        <v>6.67523416</v>
+        <v>6.683342034</v>
       </c>
       <c r="G111" s="12">
         <v>8.89E8</v>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G112" s="12">
         <v>1.85E9</v>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G113" s="12">
         <v>1.85E9</v>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G114" s="12">
         <v>1.85E9</v>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="F115" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G115" s="12">
         <v>1.85E9</v>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G116" s="12">
         <v>1.85E9</v>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G117" s="12">
         <v>1.85E9</v>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G118" s="12">
         <v>1.85E9</v>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G119" s="12">
         <v>1.85E9</v>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G120" s="12">
         <v>1.85E9</v>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G121" s="12">
         <v>1.85E9</v>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G122" s="12">
         <v>1.85E9</v>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="1"/>
-        <v>3.743727311</v>
+        <v>3.751835184</v>
       </c>
       <c r="G123" s="12">
         <v>1.85E9</v>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G124" s="12">
         <v>1.85E9</v>
@@ -8265,7 +8265,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G125" s="12">
         <v>1.85E9</v>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G126" s="12">
         <v>1.85E9</v>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G127" s="12">
         <v>1.85E9</v>
@@ -8408,7 +8408,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G128" s="12">
         <v>1.875E9</v>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="F129" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G129" s="12">
         <v>1.85E9</v>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G130" s="12">
         <v>1.85E9</v>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G131" s="12">
         <v>1.85E9</v>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G132" s="12">
         <v>1.85E9</v>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G133" s="12">
         <v>1.85E9</v>
@@ -8696,7 +8696,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G134" s="12">
         <v>1.85E9</v>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G135" s="12">
         <v>1.85E9</v>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G136" s="12">
         <v>1.85E9</v>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G137" s="12">
         <v>1.85E9</v>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G138" s="12">
         <v>1.85E9</v>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G139" s="12">
         <v>1.85E9</v>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G140" s="12">
         <v>1.85E9</v>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G141" s="12">
         <v>1.85E9</v>
@@ -9080,7 +9080,7 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G142" s="12">
         <v>1.85E9</v>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="1"/>
-        <v>3.609480735</v>
+        <v>3.617588609</v>
       </c>
       <c r="G143" s="12">
         <v>1.85E9</v>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="1"/>
-        <v>6.67523416</v>
+        <v>6.683342034</v>
       </c>
       <c r="G144" s="12">
         <v>8.89E8</v>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="1"/>
-        <v>6.67523416</v>
+        <v>6.683342034</v>
       </c>
       <c r="G145" s="12">
         <v>8.89E8</v>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="1"/>
-        <v>3.565645119</v>
+        <v>3.573752992</v>
       </c>
       <c r="G146" s="12">
         <v>1.85E9</v>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="1"/>
-        <v>3.565645119</v>
+        <v>3.573752992</v>
       </c>
       <c r="G147" s="12">
         <v>1.85E9</v>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="1"/>
-        <v>3.565645119</v>
+        <v>3.573752992</v>
       </c>
       <c r="G148" s="12">
         <v>1.85E9</v>
@@ -9408,7 +9408,7 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="1"/>
-        <v>3.565645119</v>
+        <v>3.573752992</v>
       </c>
       <c r="G149" s="12">
         <v>1.85E9</v>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="1"/>
-        <v>3.562905393</v>
+        <v>3.571013266</v>
       </c>
       <c r="G150" s="12">
         <v>1.85E9</v>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="F151" s="11">
         <f t="shared" si="1"/>
-        <v>6.67523416</v>
+        <v>6.683342034</v>
       </c>
       <c r="G151" s="12">
         <v>8.89E8</v>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="F152" s="11">
         <f t="shared" si="1"/>
-        <v>5.67523416</v>
+        <v>5.683342034</v>
       </c>
       <c r="G152" s="12">
         <v>8.89E8</v>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F153" s="11">
         <f t="shared" si="1"/>
-        <v>5.67523416</v>
+        <v>5.683342034</v>
       </c>
       <c r="G153" s="12">
         <v>8.89E8</v>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="F157" s="11">
         <f t="shared" si="1"/>
-        <v>3.450576626</v>
+        <v>3.458684499</v>
       </c>
       <c r="G157" s="12">
         <v>1.85E9</v>
@@ -9800,7 +9800,7 @@
       </c>
       <c r="F158" s="11">
         <f t="shared" si="1"/>
-        <v>3.450576626</v>
+        <v>3.458684499</v>
       </c>
       <c r="G158" s="12">
         <v>1.85E9</v>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="F159" s="11">
         <f t="shared" si="1"/>
-        <v>3.450576626</v>
+        <v>3.458684499</v>
       </c>
       <c r="G159" s="12">
         <v>1.85E9</v>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="F160" s="11">
         <f t="shared" si="1"/>
-        <v>3.450576626</v>
+        <v>3.458684499</v>
       </c>
       <c r="G160" s="12">
         <v>1.85E9</v>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="F161" s="11">
         <f t="shared" si="1"/>
-        <v>3.450576626</v>
+        <v>3.458684499</v>
       </c>
       <c r="G161" s="12">
         <v>1.85E9</v>
@@ -9992,7 +9992,7 @@
       </c>
       <c r="F162" s="11">
         <f t="shared" si="1"/>
-        <v>3.450576626</v>
+        <v>3.458684499</v>
       </c>
       <c r="G162" s="12">
         <v>1.85E9</v>
@@ -10039,7 +10039,7 @@
       </c>
       <c r="F163" s="11">
         <f t="shared" si="1"/>
-        <v>3.343727311</v>
+        <v>3.351835184</v>
       </c>
       <c r="G163" s="12">
         <v>1.85E9</v>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="F164" s="11">
         <f t="shared" si="1"/>
-        <v>3.343727311</v>
+        <v>3.351835184</v>
       </c>
       <c r="G164" s="12">
         <v>1.85E9</v>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="F165" s="11">
         <f t="shared" si="1"/>
-        <v>3.343727311</v>
+        <v>3.351835184</v>
       </c>
       <c r="G165" s="12">
         <v>1.85E9</v>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="F166" s="11">
         <f t="shared" si="1"/>
-        <v>3.343727311</v>
+        <v>3.351835184</v>
       </c>
       <c r="G166" s="12">
         <v>1.85E9</v>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="F167" s="11">
         <f t="shared" si="1"/>
-        <v>3.343727311</v>
+        <v>3.351835184</v>
       </c>
       <c r="G167" s="12">
         <v>1.85E9</v>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="F168" s="11">
         <f t="shared" si="1"/>
-        <v>3.343727311</v>
+        <v>3.351835184</v>
       </c>
       <c r="G168" s="12">
         <v>1.85E9</v>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F170" s="11">
         <f t="shared" si="1"/>
-        <v>3.343727311</v>
+        <v>3.351835184</v>
       </c>
       <c r="G170" s="12">
         <v>1.85E9</v>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="F173" s="11">
         <f t="shared" si="1"/>
-        <v>3.343727311</v>
+        <v>3.351835184</v>
       </c>
       <c r="G173" s="12">
         <v>1.85E9</v>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="F174" s="11">
         <f t="shared" si="1"/>
-        <v>3.343727311</v>
+        <v>3.351835184</v>
       </c>
       <c r="G174" s="12">
         <v>1.85E9</v>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="F175" s="11">
         <f t="shared" si="1"/>
-        <v>2.645097174</v>
+        <v>2.653205047</v>
       </c>
       <c r="G175" s="12">
         <v>1.875E9</v>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="F177" s="11">
         <f t="shared" si="1"/>
-        <v>2.645097174</v>
+        <v>2.653205047</v>
       </c>
       <c r="G177" s="12">
         <v>1.875E9</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="F178" s="11">
         <f t="shared" si="1"/>
-        <v>2.645097174</v>
+        <v>2.653205047</v>
       </c>
       <c r="G178" s="12">
         <v>1.875E9</v>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="F179" s="11">
         <f t="shared" si="1"/>
-        <v>2.645097174</v>
+        <v>2.653205047</v>
       </c>
       <c r="G179" s="12">
         <v>1.875E9</v>
@@ -10810,7 +10810,7 @@
       </c>
       <c r="F180" s="11">
         <f t="shared" si="1"/>
-        <v>2.645097174</v>
+        <v>2.653205047</v>
       </c>
       <c r="G180" s="12">
         <v>1.875E9</v>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="F181" s="11">
         <f t="shared" si="1"/>
-        <v>2.571124571</v>
+        <v>2.579232445</v>
       </c>
       <c r="G181" s="12">
         <v>1.875E9</v>
@@ -10904,7 +10904,7 @@
       </c>
       <c r="F182" s="11">
         <f t="shared" si="1"/>
-        <v>2.571124571</v>
+        <v>2.579232445</v>
       </c>
       <c r="G182" s="12">
         <v>1.875E9</v>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="F195" s="11">
         <f t="shared" si="1"/>
-        <v>2.645097174</v>
+        <v>2.653205047</v>
       </c>
       <c r="G195" s="12">
         <v>1.875E9</v>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="F196" s="11">
         <f t="shared" si="1"/>
-        <v>2.645097174</v>
+        <v>2.653205047</v>
       </c>
       <c r="G196" s="12">
         <v>1.875E9</v>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="F197" s="11">
         <f t="shared" si="1"/>
-        <v>2.571124571</v>
+        <v>2.579232445</v>
       </c>
       <c r="G197" s="12">
         <v>1.875E9</v>
@@ -11558,7 +11558,7 @@
       </c>
       <c r="F198" s="11">
         <f t="shared" si="1"/>
-        <v>2.571124571</v>
+        <v>2.579232445</v>
       </c>
       <c r="G198" s="12">
         <v>1.875E9</v>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="F199" s="11">
         <f t="shared" si="1"/>
-        <v>2.571124571</v>
+        <v>2.579232445</v>
       </c>
       <c r="G199" s="12">
         <v>1.875E9</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="F200" s="11">
         <f t="shared" si="1"/>
-        <v>2.571124571</v>
+        <v>2.579232445</v>
       </c>
       <c r="G200" s="12">
         <v>1.875E9</v>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="F201" s="11">
         <f t="shared" si="1"/>
-        <v>2.645097174</v>
+        <v>2.653205047</v>
       </c>
       <c r="G201" s="12">
         <v>1.875E9</v>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="F202" s="11">
         <f t="shared" si="1"/>
-        <v>2.571124571</v>
+        <v>2.579232445</v>
       </c>
       <c r="G202" s="12">
         <v>1.875E9</v>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="F205" s="11">
         <f t="shared" si="1"/>
-        <v>2.571124571</v>
+        <v>2.579232445</v>
       </c>
       <c r="G205" s="12">
         <v>1.875E9</v>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="F206" s="11">
         <f t="shared" si="1"/>
-        <v>2.645097174</v>
+        <v>2.653205047</v>
       </c>
       <c r="G206" s="12">
         <v>1.875E9</v>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="F207" s="11">
         <f t="shared" si="1"/>
-        <v>2.645097174</v>
+        <v>2.653205047</v>
       </c>
       <c r="G207" s="12">
         <v>1.875E9</v>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="F208" s="11">
         <f t="shared" si="1"/>
-        <v>2.571124571</v>
+        <v>2.579232445</v>
       </c>
       <c r="G208" s="12">
         <v>1.875E9</v>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="F209" s="11">
         <f t="shared" si="1"/>
-        <v>2.571124571</v>
+        <v>2.579232445</v>
       </c>
       <c r="G209" s="12">
         <v>1.875E9</v>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="F210" s="11">
         <f t="shared" si="1"/>
-        <v>2.532768406</v>
+        <v>2.54087628</v>
       </c>
       <c r="G210" s="12">
         <v>1.875E9</v>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="F211" s="11">
         <f t="shared" si="1"/>
-        <v>2.532768406</v>
+        <v>2.54087628</v>
       </c>
       <c r="G211" s="12">
         <v>1.875E9</v>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="F212" s="11">
         <f t="shared" si="1"/>
-        <v>2.519069776</v>
+        <v>2.52717765</v>
       </c>
       <c r="G212" s="12">
         <v>1.875E9</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="F213" s="11">
         <f t="shared" si="1"/>
-        <v>2.519069776</v>
+        <v>2.52717765</v>
       </c>
       <c r="G213" s="12">
         <v>1.875E9</v>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="F219" s="11">
         <f t="shared" si="1"/>
-        <v>2.535508132</v>
+        <v>2.543616006</v>
       </c>
       <c r="G219" s="12">
         <v>1.875E9</v>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="F220" s="11">
         <f t="shared" si="1"/>
-        <v>2.538247859</v>
+        <v>2.546355732</v>
       </c>
       <c r="G220" s="12">
         <v>1.875E9</v>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="F221" s="11">
         <f t="shared" si="1"/>
-        <v>2.538247859</v>
+        <v>2.546355732</v>
       </c>
       <c r="G221" s="12">
         <v>1.875E9</v>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="F222" s="11">
         <f t="shared" si="1"/>
-        <v>2.535508133</v>
+        <v>2.543616006</v>
       </c>
       <c r="G222" s="12">
         <v>1.875E9</v>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="F223" s="11">
         <f t="shared" si="1"/>
-        <v>2.535508133</v>
+        <v>2.543616006</v>
       </c>
       <c r="G223" s="12">
         <v>1.875E9</v>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="F224" s="11">
         <f t="shared" si="1"/>
-        <v>2.519069776</v>
+        <v>2.52717765</v>
       </c>
       <c r="G224" s="12">
         <v>1.875E9</v>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="F225" s="11">
         <f t="shared" si="1"/>
-        <v>2.519069776</v>
+        <v>2.52717765</v>
       </c>
       <c r="G225" s="12">
         <v>1.875E9</v>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="F226" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G226" s="12">
         <v>1.875E9</v>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="F227" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G227" s="12">
         <v>1.875E9</v>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="F228" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G228" s="12">
         <v>1.875E9</v>
@@ -12996,7 +12996,7 @@
       </c>
       <c r="F231" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G231" s="12">
         <v>1.875E9</v>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="F232" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G232" s="12">
         <v>1.875E9</v>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="F233" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G233" s="12">
         <v>1.875E9</v>
@@ -13137,7 +13137,7 @@
       </c>
       <c r="F234" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G234" s="12">
         <v>1.875E9</v>
@@ -13184,7 +13184,7 @@
       </c>
       <c r="F235" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G235" s="12">
         <v>1.875E9</v>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="F236" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G236" s="12">
         <v>1.875E9</v>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="F237" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G237" s="12">
         <v>1.875E9</v>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="F238" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G238" s="12">
         <v>1.875E9</v>
@@ -13372,7 +13372,7 @@
       </c>
       <c r="F239" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G239" s="12">
         <v>1.875E9</v>
@@ -13419,7 +13419,7 @@
       </c>
       <c r="F240" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G240" s="12">
         <v>1.875E9</v>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="F241" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G241" s="12">
         <v>1.875E9</v>
@@ -13513,7 +13513,7 @@
       </c>
       <c r="F242" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G242" s="12">
         <v>1.875E9</v>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="F243" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G243" s="12">
         <v>1.875E9</v>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="F247" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G247" s="12">
         <v>1.875E9</v>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="F248" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G248" s="12">
         <v>1.875E9</v>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="F251" s="11">
         <f t="shared" si="1"/>
-        <v>1.598521831</v>
+        <v>1.606629705</v>
       </c>
       <c r="G251" s="12">
         <v>1.875E9</v>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="F252" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G252" s="12">
         <v>1.261261261E9</v>
@@ -13974,7 +13974,7 @@
       </c>
       <c r="F253" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G253" s="12">
         <v>1.261261261E9</v>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="F254" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G254" s="12">
         <v>1.261261261E9</v>
@@ -14068,7 +14068,7 @@
       </c>
       <c r="F255" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G255" s="12">
         <v>1.261261261E9</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="F256" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G256" s="12">
         <v>1.261261261E9</v>
@@ -14162,7 +14162,7 @@
       </c>
       <c r="F257" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G257" s="12">
         <v>1.261261261E9</v>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="F258" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G258" s="12">
         <v>1.261261261E9</v>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="F259" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G259" s="12">
         <v>1.261261261E9</v>
@@ -14303,7 +14303,7 @@
       </c>
       <c r="F260" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G260" s="12">
         <v>1.261261261E9</v>
@@ -14350,7 +14350,7 @@
       </c>
       <c r="F261" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G261" s="12">
         <v>1.261261261E9</v>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="F262" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G262" s="12">
         <v>1.261261261E9</v>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="F263" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G263" s="12">
         <v>1.261261261E9</v>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F264" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G264" s="12">
         <v>1.261261261E9</v>
@@ -14538,7 +14538,7 @@
       </c>
       <c r="F265" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G265" s="12">
         <v>1.261261261E9</v>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="F266" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G266" s="12">
         <v>1.261261261E9</v>
@@ -14632,7 +14632,7 @@
       </c>
       <c r="F267" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G267" s="12">
         <v>1.261261261E9</v>
@@ -14679,7 +14679,7 @@
       </c>
       <c r="F268" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G268" s="12">
         <v>1.261261261E9</v>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="F269" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G269" s="12">
         <v>1.261261261E9</v>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="F270" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G270" s="12">
         <v>1.261261261E9</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="F271" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G271" s="12">
         <v>1.261261261E9</v>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="F272" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G272" s="12">
         <v>1.261261261E9</v>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="F273" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G273" s="12">
         <v>1.261261261E9</v>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="F274" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G274" s="12">
         <v>1.261261261E9</v>
@@ -15074,7 +15074,7 @@
       </c>
       <c r="F277" s="11">
         <f t="shared" si="1"/>
-        <v>1.03413827</v>
+        <v>1.042246143</v>
       </c>
       <c r="G277" s="12">
         <v>1.261261261E9</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="F279" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G279" s="12">
         <v>1.261261261E9</v>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F280" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G280" s="12">
         <v>1.261261261E9</v>
@@ -15247,7 +15247,7 @@
       </c>
       <c r="F281" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G281" s="12">
         <v>1.261261261E9</v>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="F282" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G282" s="12">
         <v>1.261261261E9</v>
@@ -15405,7 +15405,7 @@
       </c>
       <c r="F285" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G285" s="12">
         <v>1.261261261E9</v>
@@ -15451,7 +15451,7 @@
       </c>
       <c r="F286" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G286" s="12">
         <v>1.261261261E9</v>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="F287" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G287" s="12">
         <v>1.261261261E9</v>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="F288" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G288" s="12">
         <v>1.261261261E9</v>
@@ -15589,7 +15589,7 @@
       </c>
       <c r="F289" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G289" s="12">
         <v>1.261261261E9</v>
@@ -15741,7 +15741,7 @@
       </c>
       <c r="F293" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G293" s="12">
         <v>1.261261261E9</v>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="F294" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G294" s="12">
         <v>1.261261261E9</v>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="F295" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G295" s="12">
         <v>1.261261261E9</v>
@@ -15999,7 +15999,7 @@
       </c>
       <c r="F299" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G299" s="12">
         <v>1.261261261E9</v>
@@ -16078,7 +16078,7 @@
       </c>
       <c r="F301" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G301" s="12">
         <v>1.261261261E9</v>
@@ -16124,7 +16124,7 @@
       </c>
       <c r="F302" s="11">
         <f t="shared" si="1"/>
-        <v>0.5957821051</v>
+        <v>0.6038899789</v>
       </c>
       <c r="G302" s="12">
         <v>1.261261261E9</v>
@@ -16170,7 +16170,7 @@
       </c>
       <c r="F303" s="11">
         <f t="shared" si="1"/>
-        <v>0.4944122421</v>
+        <v>0.5025201159</v>
       </c>
       <c r="G303" s="12">
         <v>1.261261261E9</v>
@@ -16216,7 +16216,7 @@
       </c>
       <c r="F304" s="11">
         <f t="shared" si="1"/>
-        <v>0.4944122421</v>
+        <v>0.5025201159</v>
       </c>
       <c r="G304" s="12">
         <v>1.261261261E9</v>
@@ -16342,7 +16342,7 @@
       </c>
       <c r="F307" s="11">
         <f t="shared" si="1"/>
-        <v>0.4944122421</v>
+        <v>0.5025201159</v>
       </c>
       <c r="G307" s="12">
         <v>1.261261261E9</v>
@@ -16425,7 +16425,7 @@
       </c>
       <c r="F309" s="11">
         <f t="shared" si="1"/>
-        <v>0.4944122421</v>
+        <v>0.5025201159</v>
       </c>
       <c r="G309" s="12">
         <v>1.261261261E9</v>
@@ -16471,7 +16471,7 @@
       </c>
       <c r="F310" s="11">
         <f t="shared" si="1"/>
-        <v>0.4944122421</v>
+        <v>0.5025201159</v>
       </c>
       <c r="G310" s="12">
         <v>1.261261261E9</v>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="F311" s="11">
         <f t="shared" si="1"/>
-        <v>5.269754708</v>
+        <v>5.277862582</v>
       </c>
       <c r="G311" s="12">
         <v>1.6E9</v>
@@ -16557,7 +16557,7 @@
       </c>
       <c r="F312" s="11">
         <f t="shared" si="1"/>
-        <v>5.269754708</v>
+        <v>5.277862582</v>
       </c>
       <c r="G312" s="12">
         <v>1.6E9</v>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="F313" s="11">
         <f t="shared" si="1"/>
-        <v>5.269754708</v>
+        <v>5.277862582</v>
       </c>
       <c r="G313" s="12">
         <v>1.6E9</v>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="F320" s="11">
         <f t="shared" si="1"/>
-        <v>13.23961772</v>
+        <v>13.2477256</v>
       </c>
       <c r="G320" s="12">
         <v>3.036E9</v>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="F321" s="11">
         <f t="shared" si="1"/>
-        <v>12.51633005</v>
+        <v>12.52443792</v>
       </c>
       <c r="G321" s="12">
         <v>3.036E9</v>
@@ -16942,7 +16942,7 @@
       </c>
       <c r="F322" s="11">
         <f t="shared" si="1"/>
-        <v>11.44235745</v>
+        <v>11.45046532</v>
       </c>
       <c r="G322" s="12">
         <v>3.036E9</v>
@@ -17050,7 +17050,7 @@
       </c>
       <c r="F325" s="11">
         <f t="shared" si="1"/>
-        <v>12.77112457</v>
+        <v>12.77923244</v>
       </c>
       <c r="G325" s="12">
         <v>1.3E9</v>
@@ -17252,7 +17252,7 @@
       </c>
       <c r="F330" s="11">
         <f t="shared" si="1"/>
-        <v>12.77112457</v>
+        <v>12.77923244</v>
       </c>
       <c r="G330" s="12">
         <v>1.3E9</v>
@@ -17294,7 +17294,7 @@
       </c>
       <c r="F331" s="11">
         <f t="shared" si="1"/>
-        <v>19.10811087</v>
+        <v>19.11621875</v>
       </c>
       <c r="G331" s="25"/>
       <c r="H331" s="26"/>
@@ -17494,7 +17494,7 @@
       </c>
       <c r="F337" s="11">
         <f t="shared" si="1"/>
-        <v>9.201261557</v>
+        <v>9.209369431</v>
       </c>
       <c r="G337" s="12">
         <v>1.3E9</v>
@@ -17536,7 +17536,7 @@
       </c>
       <c r="F338" s="11">
         <f t="shared" si="1"/>
-        <v>9.201261557</v>
+        <v>9.209369431</v>
       </c>
       <c r="G338" s="12">
         <v>1.3E9</v>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="F339" s="11">
         <f t="shared" si="1"/>
-        <v>10.83413827</v>
+        <v>10.84224614</v>
       </c>
       <c r="G339" s="12">
         <v>3.08E9</v>
@@ -17799,7 +17799,7 @@
       </c>
       <c r="F345" s="11">
         <f t="shared" si="1"/>
-        <v>10.83413827</v>
+        <v>10.84224614</v>
       </c>
       <c r="G345" s="12">
         <v>3.08E9</v>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="F346" s="11">
         <f t="shared" si="1"/>
-        <v>6.521809502</v>
+        <v>6.529917376</v>
       </c>
       <c r="G346" s="12">
         <v>5.5E9</v>
@@ -17883,7 +17883,7 @@
       </c>
       <c r="F347" s="11">
         <f t="shared" si="1"/>
-        <v>6.521809502</v>
+        <v>6.529917376</v>
       </c>
       <c r="G347" s="12">
         <v>5.5E9</v>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="F348" s="11">
         <f t="shared" si="1"/>
-        <v>6.521809502</v>
+        <v>6.529917376</v>
       </c>
       <c r="G348" s="12">
         <v>5.5E9</v>
@@ -18419,7 +18419,7 @@
       </c>
       <c r="F361" s="11">
         <f t="shared" si="1"/>
-        <v>4.031398543</v>
+        <v>4.039506417</v>
       </c>
       <c r="G361" s="12">
         <v>1.3E9</v>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="F362" s="11">
         <f t="shared" si="1"/>
-        <v>4.031398543</v>
+        <v>4.039506417</v>
       </c>
       <c r="G362" s="12">
         <v>1.3E9</v>
@@ -18577,7 +18577,7 @@
       </c>
       <c r="F365" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G365" s="12">
         <v>4.5E9</v>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="F366" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G366" s="12">
         <v>4.5E9</v>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="F371" s="11">
         <f t="shared" si="1"/>
-        <v>4.031398543</v>
+        <v>4.039506417</v>
       </c>
       <c r="G371" s="12">
         <v>1.3E9</v>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="F372" s="11">
         <f t="shared" si="1"/>
-        <v>3.919069776</v>
+        <v>3.92717765</v>
       </c>
       <c r="G372" s="12">
         <v>1.3E9</v>
@@ -18887,7 +18887,7 @@
       </c>
       <c r="F373" s="11">
         <f t="shared" si="1"/>
-        <v>3.919069776</v>
+        <v>3.92717765</v>
       </c>
       <c r="G373" s="12">
         <v>1.3E9</v>
@@ -18934,7 +18934,7 @@
       </c>
       <c r="F374" s="11">
         <f t="shared" si="1"/>
-        <v>3.919069776</v>
+        <v>3.92717765</v>
       </c>
       <c r="G374" s="12">
         <v>1.3E9</v>
@@ -19127,7 +19127,7 @@
       </c>
       <c r="F379" s="11">
         <f t="shared" si="1"/>
-        <v>3.83413827</v>
+        <v>3.842246143</v>
       </c>
       <c r="G379" s="12">
         <v>4.5E9</v>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="F382" s="11">
         <f t="shared" si="1"/>
-        <v>10.83413827</v>
+        <v>10.84224614</v>
       </c>
       <c r="G382" s="12">
         <v>3.08E9</v>
@@ -19277,7 +19277,7 @@
       </c>
       <c r="F383" s="11">
         <f t="shared" si="1"/>
-        <v>2.776604023</v>
+        <v>2.784711897</v>
       </c>
       <c r="G383" s="12">
         <v>3.08E9</v>
@@ -19399,7 +19399,7 @@
       </c>
       <c r="F386" s="11">
         <f t="shared" si="1"/>
-        <v>13.41222046</v>
+        <v>13.42032834</v>
       </c>
       <c r="G386" s="12">
         <v>2.45E9</v>
@@ -19441,7 +19441,7 @@
       </c>
       <c r="F387" s="11">
         <f t="shared" si="1"/>
-        <v>12.27797389</v>
+        <v>12.28608176</v>
       </c>
       <c r="G387" s="12">
         <v>2.45E9</v>
@@ -19483,7 +19483,7 @@
       </c>
       <c r="F388" s="11">
         <f t="shared" si="1"/>
-        <v>12.27797389</v>
+        <v>12.28608176</v>
       </c>
       <c r="G388" s="12">
         <v>2.45E9</v>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="F389" s="11">
         <f t="shared" si="1"/>
-        <v>12.27797389</v>
+        <v>12.28608176</v>
       </c>
       <c r="G389" s="12">
         <v>2.45E9</v>
@@ -19567,7 +19567,7 @@
       </c>
       <c r="F390" s="11">
         <f t="shared" si="1"/>
-        <v>12.27797389</v>
+        <v>12.28608176</v>
       </c>
       <c r="G390" s="12">
         <v>2.45E9</v>
@@ -19609,7 +19609,7 @@
       </c>
       <c r="F391" s="11">
         <f t="shared" si="1"/>
-        <v>12.27797389</v>
+        <v>12.28608176</v>
       </c>
       <c r="G391" s="12">
         <v>2.45E9</v>
@@ -19651,7 +19651,7 @@
       </c>
       <c r="F392" s="11">
         <f t="shared" si="1"/>
-        <v>6.127288954</v>
+        <v>6.135396828</v>
       </c>
       <c r="G392" s="12">
         <v>2.45E9</v>
@@ -19693,7 +19693,7 @@
       </c>
       <c r="F393" s="11">
         <f t="shared" si="1"/>
-        <v>6.127288954</v>
+        <v>6.135396828</v>
       </c>
       <c r="G393" s="12">
         <v>2.45E9</v>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="F395" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G395" s="12">
         <v>6.0E9</v>
@@ -19820,7 +19820,7 @@
       </c>
       <c r="F396" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G396" s="12">
         <v>6.0E9</v>
@@ -19865,7 +19865,7 @@
       </c>
       <c r="F397" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G397" s="12">
         <v>6.0E9</v>
@@ -19910,7 +19910,7 @@
       </c>
       <c r="F398" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G398" s="12">
         <v>6.0E9</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="F399" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G399" s="12">
         <v>6.0E9</v>
@@ -20000,7 +20000,7 @@
       </c>
       <c r="F400" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G400" s="12">
         <v>6.0E9</v>
@@ -20045,7 +20045,7 @@
       </c>
       <c r="F401" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G401" s="12">
         <v>6.0E9</v>
@@ -20130,7 +20130,7 @@
       </c>
       <c r="F403" s="11">
         <f t="shared" si="1"/>
-        <v>3.869754708</v>
+        <v>3.877862582</v>
       </c>
       <c r="G403" s="12">
         <v>2.45E9</v>
@@ -20177,7 +20177,7 @@
       </c>
       <c r="F404" s="11">
         <f t="shared" si="1"/>
-        <v>3.83413827</v>
+        <v>3.842246143</v>
       </c>
       <c r="G404" s="12">
         <v>4.5E9</v>
@@ -20219,7 +20219,7 @@
       </c>
       <c r="F405" s="11">
         <f t="shared" si="1"/>
-        <v>3.83413827</v>
+        <v>3.842246143</v>
       </c>
       <c r="G405" s="12">
         <v>4.5E9</v>
@@ -20261,7 +20261,7 @@
       </c>
       <c r="F406" s="11">
         <f t="shared" si="1"/>
-        <v>2.856056078</v>
+        <v>2.864163952</v>
       </c>
       <c r="G406" s="12">
         <v>4.5E9</v>
@@ -20303,7 +20303,7 @@
       </c>
       <c r="F407" s="11">
         <f t="shared" si="1"/>
-        <v>2.856056078</v>
+        <v>2.864163952</v>
       </c>
       <c r="G407" s="12">
         <v>4.5E9</v>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="F417" s="11">
         <f t="shared" si="1"/>
-        <v>3.919069776</v>
+        <v>3.92717765</v>
       </c>
       <c r="G417" s="12">
         <v>1.3E9</v>
@@ -20689,7 +20689,7 @@
       </c>
       <c r="F418" s="11">
         <f t="shared" si="1"/>
-        <v>3.719069776</v>
+        <v>3.72717765</v>
       </c>
       <c r="G418" s="12">
         <v>1.3E9</v>
@@ -20736,7 +20736,7 @@
       </c>
       <c r="F419" s="11">
         <f t="shared" si="1"/>
-        <v>13.42043964</v>
+        <v>13.42854751</v>
       </c>
       <c r="G419" s="12">
         <v>3.08E9</v>
@@ -20778,7 +20778,7 @@
       </c>
       <c r="F420" s="11">
         <f t="shared" si="1"/>
-        <v>12.5218095</v>
+        <v>12.52991738</v>
       </c>
       <c r="G420" s="12">
         <v>3.08E9</v>
@@ -20820,7 +20820,7 @@
       </c>
       <c r="F421" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G421" s="12">
         <v>6.0E9</v>
@@ -20865,7 +20865,7 @@
       </c>
       <c r="F422" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G422" s="12">
         <v>6.0E9</v>
@@ -20910,7 +20910,7 @@
       </c>
       <c r="F423" s="11">
         <f t="shared" si="1"/>
-        <v>3.719069776</v>
+        <v>3.72717765</v>
       </c>
       <c r="G423" s="12">
         <v>1.3E9</v>
@@ -20957,7 +20957,7 @@
       </c>
       <c r="F424" s="11">
         <f t="shared" si="1"/>
-        <v>3.719069776</v>
+        <v>3.72717765</v>
       </c>
       <c r="G424" s="12">
         <v>1.3E9</v>
@@ -21004,7 +21004,7 @@
       </c>
       <c r="F425" s="11">
         <f t="shared" si="1"/>
-        <v>6.66153553</v>
+        <v>6.669643404</v>
       </c>
       <c r="G425" s="12">
         <v>3.08E9</v>
@@ -21046,7 +21046,7 @@
       </c>
       <c r="F426" s="11">
         <f t="shared" si="1"/>
-        <v>6.140987585</v>
+        <v>6.149095458</v>
       </c>
       <c r="G426" s="12">
         <v>3.08E9</v>
@@ -21088,7 +21088,7 @@
       </c>
       <c r="F427" s="11">
         <f t="shared" si="1"/>
-        <v>3.719069776</v>
+        <v>3.72717765</v>
       </c>
       <c r="G427" s="12">
         <v>1.3E9</v>
@@ -21135,7 +21135,7 @@
       </c>
       <c r="F428" s="11">
         <f t="shared" si="1"/>
-        <v>3.719069776</v>
+        <v>3.72717765</v>
       </c>
       <c r="G428" s="12">
         <v>1.3E9</v>
@@ -21182,7 +21182,7 @@
       </c>
       <c r="F429" s="11">
         <f t="shared" si="1"/>
-        <v>3.719069776</v>
+        <v>3.72717765</v>
       </c>
       <c r="G429" s="12">
         <v>1.3E9</v>
@@ -21229,7 +21229,7 @@
       </c>
       <c r="F430" s="11">
         <f t="shared" si="1"/>
-        <v>3.584823201</v>
+        <v>3.592931075</v>
       </c>
       <c r="G430" s="12">
         <v>1.304595045E9</v>
@@ -21340,7 +21340,7 @@
       </c>
       <c r="F433" s="11">
         <f t="shared" si="1"/>
-        <v>3.584823201</v>
+        <v>3.592931075</v>
       </c>
       <c r="G433" s="12">
         <v>1.304595045E9</v>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="F434" s="11">
         <f t="shared" si="1"/>
-        <v>3.584823201</v>
+        <v>3.592931075</v>
       </c>
       <c r="G434" s="12">
         <v>1.304595045E9</v>
@@ -21503,7 +21503,7 @@
       </c>
       <c r="F437" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G437" s="12">
         <v>6.0E9</v>
@@ -21548,7 +21548,7 @@
       </c>
       <c r="F438" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G438" s="12">
         <v>6.0E9</v>
@@ -21593,7 +21593,7 @@
       </c>
       <c r="F439" s="11">
         <f t="shared" si="1"/>
-        <v>3.869754708</v>
+        <v>3.877862582</v>
       </c>
       <c r="G439" s="12">
         <v>2.45E9</v>
@@ -21640,7 +21640,7 @@
       </c>
       <c r="F440" s="11">
         <f t="shared" si="1"/>
-        <v>3.869754708</v>
+        <v>3.877862582</v>
       </c>
       <c r="G440" s="12">
         <v>2.45E9</v>
@@ -21753,7 +21753,7 @@
       </c>
       <c r="F443" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G443" s="12">
         <v>6.0E9</v>
@@ -22095,7 +22095,7 @@
       </c>
       <c r="F453" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G453" s="12">
         <v>6.0E9</v>
@@ -22140,7 +22140,7 @@
       </c>
       <c r="F454" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G454" s="12">
         <v>6.0E9</v>
@@ -22185,7 +22185,7 @@
       </c>
       <c r="F455" s="11">
         <f t="shared" si="1"/>
-        <v>3.584823201</v>
+        <v>3.592931075</v>
       </c>
       <c r="G455" s="12">
         <v>1.304595045E9</v>
@@ -22230,7 +22230,7 @@
       </c>
       <c r="F456" s="11">
         <f t="shared" si="1"/>
-        <v>3.584823201</v>
+        <v>3.592931075</v>
       </c>
       <c r="G456" s="12">
         <v>1.3E9</v>
@@ -22534,7 +22534,7 @@
       </c>
       <c r="F464" s="11">
         <f t="shared" si="1"/>
-        <v>3.294412242</v>
+        <v>3.302520116</v>
       </c>
       <c r="G464" s="12">
         <v>6.0E9</v>
@@ -22579,7 +22579,7 @@
       </c>
       <c r="F465" s="11">
         <f t="shared" si="1"/>
-        <v>0.379343749</v>
+        <v>0.3874516228</v>
       </c>
       <c r="G465" s="12">
         <v>2.6865E9</v>
@@ -22958,7 +22958,7 @@
       </c>
       <c r="F475" s="11">
         <f t="shared" si="1"/>
-        <v>3.584823201</v>
+        <v>3.592931075</v>
       </c>
       <c r="G475" s="12">
         <v>1.3E9</v>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="F476" s="11">
         <f t="shared" si="1"/>
-        <v>3.584823201</v>
+        <v>3.592931075</v>
       </c>
       <c r="G476" s="12">
         <v>1.3E9</v>
@@ -23312,7 +23312,7 @@
       </c>
       <c r="F485" s="11">
         <f t="shared" si="1"/>
-        <v>3.190302653</v>
+        <v>3.198410527</v>
       </c>
       <c r="G485" s="12">
         <v>1.3E9</v>
@@ -23359,7 +23359,7 @@
       </c>
       <c r="F486" s="11">
         <f t="shared" si="1"/>
-        <v>3.190302653</v>
+        <v>3.198410527</v>
       </c>
       <c r="G486" s="12">
         <v>1.3E9</v>
@@ -37335,7 +37335,7 @@
       </c>
       <c r="B2" s="45">
         <f t="shared" ref="B2:B75" si="1">now()</f>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C2" s="46">
         <f t="shared" ref="C2:C75" si="2">round((B2-A2)/365,0)</f>
@@ -37348,7 +37348,7 @@
       </c>
       <c r="B3" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C3" s="46">
         <f t="shared" si="2"/>
@@ -37361,7 +37361,7 @@
       </c>
       <c r="B4" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C4" s="46">
         <f t="shared" si="2"/>
@@ -37374,7 +37374,7 @@
       </c>
       <c r="B5" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C5" s="46">
         <f t="shared" si="2"/>
@@ -37387,7 +37387,7 @@
       </c>
       <c r="B6" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C6" s="46">
         <f t="shared" si="2"/>
@@ -37400,7 +37400,7 @@
       </c>
       <c r="B7" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C7" s="46">
         <f t="shared" si="2"/>
@@ -37413,7 +37413,7 @@
       </c>
       <c r="B8" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C8" s="46">
         <f t="shared" si="2"/>
@@ -37426,7 +37426,7 @@
       </c>
       <c r="B9" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C9" s="46">
         <f t="shared" si="2"/>
@@ -37439,7 +37439,7 @@
       </c>
       <c r="B10" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C10" s="46">
         <f t="shared" si="2"/>
@@ -37452,7 +37452,7 @@
       </c>
       <c r="B11" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C11" s="46">
         <f t="shared" si="2"/>
@@ -37465,7 +37465,7 @@
       </c>
       <c r="B12" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C12" s="46">
         <f t="shared" si="2"/>
@@ -37478,7 +37478,7 @@
       </c>
       <c r="B13" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C13" s="46">
         <f t="shared" si="2"/>
@@ -37491,7 +37491,7 @@
       </c>
       <c r="B14" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C14" s="46">
         <f t="shared" si="2"/>
@@ -37504,7 +37504,7 @@
       </c>
       <c r="B15" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C15" s="46">
         <f t="shared" si="2"/>
@@ -37517,7 +37517,7 @@
       </c>
       <c r="B16" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C16" s="46">
         <f t="shared" si="2"/>
@@ -37530,7 +37530,7 @@
       </c>
       <c r="B17" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C17" s="46">
         <f t="shared" si="2"/>
@@ -37543,7 +37543,7 @@
       </c>
       <c r="B18" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C18" s="46">
         <f t="shared" si="2"/>
@@ -37556,7 +37556,7 @@
       </c>
       <c r="B19" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C19" s="46">
         <f t="shared" si="2"/>
@@ -37569,7 +37569,7 @@
       </c>
       <c r="B20" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C20" s="46">
         <f t="shared" si="2"/>
@@ -37582,7 +37582,7 @@
       </c>
       <c r="B21" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C21" s="46">
         <f t="shared" si="2"/>
@@ -37595,7 +37595,7 @@
       </c>
       <c r="B22" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C22" s="46">
         <f t="shared" si="2"/>
@@ -37608,7 +37608,7 @@
       </c>
       <c r="B23" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C23" s="46">
         <f t="shared" si="2"/>
@@ -37621,7 +37621,7 @@
       </c>
       <c r="B24" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C24" s="46">
         <f t="shared" si="2"/>
@@ -37634,7 +37634,7 @@
       </c>
       <c r="B25" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C25" s="46">
         <f t="shared" si="2"/>
@@ -37647,7 +37647,7 @@
       </c>
       <c r="B26" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C26" s="46">
         <f t="shared" si="2"/>
@@ -37660,7 +37660,7 @@
       </c>
       <c r="B27" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C27" s="46">
         <f t="shared" si="2"/>
@@ -37673,7 +37673,7 @@
       </c>
       <c r="B28" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C28" s="46">
         <f t="shared" si="2"/>
@@ -37686,7 +37686,7 @@
       </c>
       <c r="B29" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C29" s="46">
         <f t="shared" si="2"/>
@@ -37699,7 +37699,7 @@
       </c>
       <c r="B30" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C30" s="46">
         <f t="shared" si="2"/>
@@ -37712,7 +37712,7 @@
       </c>
       <c r="B31" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C31" s="46">
         <f t="shared" si="2"/>
@@ -37725,7 +37725,7 @@
       </c>
       <c r="B32" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C32" s="46">
         <f t="shared" si="2"/>
@@ -37738,7 +37738,7 @@
       </c>
       <c r="B33" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C33" s="46">
         <f t="shared" si="2"/>
@@ -37751,7 +37751,7 @@
       </c>
       <c r="B34" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C34" s="46">
         <f t="shared" si="2"/>
@@ -37764,7 +37764,7 @@
       </c>
       <c r="B35" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C35" s="46">
         <f t="shared" si="2"/>
@@ -37777,7 +37777,7 @@
       </c>
       <c r="B36" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C36" s="46">
         <f t="shared" si="2"/>
@@ -37790,7 +37790,7 @@
       </c>
       <c r="B37" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C37" s="46">
         <f t="shared" si="2"/>
@@ -37803,7 +37803,7 @@
       </c>
       <c r="B38" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C38" s="46">
         <f t="shared" si="2"/>
@@ -37816,7 +37816,7 @@
       </c>
       <c r="B39" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C39" s="46">
         <f t="shared" si="2"/>
@@ -37829,7 +37829,7 @@
       </c>
       <c r="B40" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C40" s="46">
         <f t="shared" si="2"/>
@@ -37842,7 +37842,7 @@
       </c>
       <c r="B41" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C41" s="46">
         <f t="shared" si="2"/>
@@ -37855,7 +37855,7 @@
       </c>
       <c r="B42" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C42" s="46">
         <f t="shared" si="2"/>
@@ -37868,7 +37868,7 @@
       </c>
       <c r="B43" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C43" s="46">
         <f t="shared" si="2"/>
@@ -37881,7 +37881,7 @@
       </c>
       <c r="B44" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C44" s="46">
         <f t="shared" si="2"/>
@@ -37894,7 +37894,7 @@
       </c>
       <c r="B45" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C45" s="46">
         <f t="shared" si="2"/>
@@ -37907,7 +37907,7 @@
       </c>
       <c r="B46" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C46" s="46">
         <f t="shared" si="2"/>
@@ -37920,7 +37920,7 @@
       </c>
       <c r="B47" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C47" s="46">
         <f t="shared" si="2"/>
@@ -37933,7 +37933,7 @@
       </c>
       <c r="B48" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C48" s="46">
         <f t="shared" si="2"/>
@@ -37946,7 +37946,7 @@
       </c>
       <c r="B49" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C49" s="46">
         <f t="shared" si="2"/>
@@ -37959,7 +37959,7 @@
       </c>
       <c r="B50" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C50" s="46">
         <f t="shared" si="2"/>
@@ -37972,7 +37972,7 @@
       </c>
       <c r="B51" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C51" s="46">
         <f t="shared" si="2"/>
@@ -37985,7 +37985,7 @@
       </c>
       <c r="B52" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C52" s="46">
         <f t="shared" si="2"/>
@@ -37998,7 +37998,7 @@
       </c>
       <c r="B53" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C53" s="46">
         <f t="shared" si="2"/>
@@ -38011,7 +38011,7 @@
       </c>
       <c r="B54" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C54" s="46">
         <f t="shared" si="2"/>
@@ -38024,7 +38024,7 @@
       </c>
       <c r="B55" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C55" s="46">
         <f t="shared" si="2"/>
@@ -38037,7 +38037,7 @@
       </c>
       <c r="B56" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C56" s="46">
         <f t="shared" si="2"/>
@@ -38050,7 +38050,7 @@
       </c>
       <c r="B57" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C57" s="46">
         <f t="shared" si="2"/>
@@ -38063,7 +38063,7 @@
       </c>
       <c r="B58" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C58" s="46">
         <f t="shared" si="2"/>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="B59" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C59" s="46">
         <f t="shared" si="2"/>
@@ -38089,7 +38089,7 @@
       </c>
       <c r="B60" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C60" s="46">
         <f t="shared" si="2"/>
@@ -38102,7 +38102,7 @@
       </c>
       <c r="B61" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C61" s="46">
         <f t="shared" si="2"/>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="B62" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C62" s="46">
         <f t="shared" si="2"/>
@@ -38128,7 +38128,7 @@
       </c>
       <c r="B63" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C63" s="46">
         <f t="shared" si="2"/>
@@ -38141,7 +38141,7 @@
       </c>
       <c r="B64" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C64" s="46">
         <f t="shared" si="2"/>
@@ -38154,7 +38154,7 @@
       </c>
       <c r="B65" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C65" s="46">
         <f t="shared" si="2"/>
@@ -38167,7 +38167,7 @@
       </c>
       <c r="B66" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C66" s="46">
         <f t="shared" si="2"/>
@@ -38180,7 +38180,7 @@
       </c>
       <c r="B67" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C67" s="46">
         <f t="shared" si="2"/>
@@ -38193,7 +38193,7 @@
       </c>
       <c r="B68" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C68" s="46">
         <f t="shared" si="2"/>
@@ -38206,7 +38206,7 @@
       </c>
       <c r="B69" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C69" s="46">
         <f t="shared" si="2"/>
@@ -38219,7 +38219,7 @@
       </c>
       <c r="B70" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C70" s="46">
         <f t="shared" si="2"/>
@@ -38232,7 +38232,7 @@
       </c>
       <c r="B71" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C71" s="46">
         <f t="shared" si="2"/>
@@ -38245,7 +38245,7 @@
       </c>
       <c r="B72" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C72" s="46">
         <f t="shared" si="2"/>
@@ -38258,7 +38258,7 @@
       </c>
       <c r="B73" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C73" s="46">
         <f t="shared" si="2"/>
@@ -38271,7 +38271,7 @@
       </c>
       <c r="B74" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C74" s="46">
         <f t="shared" si="2"/>
@@ -38284,7 +38284,7 @@
       </c>
       <c r="B75" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C75" s="46">
         <f t="shared" si="2"/>
@@ -41581,7 +41581,7 @@
       </c>
       <c r="B2" s="45">
         <f t="shared" ref="B2:B75" si="1">now()</f>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C2" s="46">
         <f t="shared" ref="C2:C75" si="2">round((B2-A2)/365,0)</f>
@@ -41600,7 +41600,7 @@
       </c>
       <c r="B3" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C3" s="46">
         <f t="shared" si="2"/>
@@ -41619,7 +41619,7 @@
       </c>
       <c r="B4" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C4" s="46">
         <f t="shared" si="2"/>
@@ -41638,7 +41638,7 @@
       </c>
       <c r="B5" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C5" s="46">
         <f t="shared" si="2"/>
@@ -41657,7 +41657,7 @@
       </c>
       <c r="B6" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C6" s="46">
         <f t="shared" si="2"/>
@@ -41676,7 +41676,7 @@
       </c>
       <c r="B7" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C7" s="46">
         <f t="shared" si="2"/>
@@ -41695,7 +41695,7 @@
       </c>
       <c r="B8" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C8" s="46">
         <f t="shared" si="2"/>
@@ -41714,7 +41714,7 @@
       </c>
       <c r="B9" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C9" s="46">
         <f t="shared" si="2"/>
@@ -41733,7 +41733,7 @@
       </c>
       <c r="B10" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C10" s="46">
         <f t="shared" si="2"/>
@@ -41752,7 +41752,7 @@
       </c>
       <c r="B11" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C11" s="46">
         <f t="shared" si="2"/>
@@ -41771,7 +41771,7 @@
       </c>
       <c r="B12" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C12" s="46">
         <f t="shared" si="2"/>
@@ -41790,7 +41790,7 @@
       </c>
       <c r="B13" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C13" s="46">
         <f t="shared" si="2"/>
@@ -41809,7 +41809,7 @@
       </c>
       <c r="B14" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C14" s="46">
         <f t="shared" si="2"/>
@@ -41828,7 +41828,7 @@
       </c>
       <c r="B15" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C15" s="46">
         <f t="shared" si="2"/>
@@ -41847,7 +41847,7 @@
       </c>
       <c r="B16" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C16" s="46">
         <f t="shared" si="2"/>
@@ -41866,7 +41866,7 @@
       </c>
       <c r="B17" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C17" s="46">
         <f t="shared" si="2"/>
@@ -41885,7 +41885,7 @@
       </c>
       <c r="B18" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C18" s="46">
         <f t="shared" si="2"/>
@@ -41904,7 +41904,7 @@
       </c>
       <c r="B19" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C19" s="46">
         <f t="shared" si="2"/>
@@ -41923,7 +41923,7 @@
       </c>
       <c r="B20" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C20" s="46">
         <f t="shared" si="2"/>
@@ -41942,7 +41942,7 @@
       </c>
       <c r="B21" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C21" s="46">
         <f t="shared" si="2"/>
@@ -41961,7 +41961,7 @@
       </c>
       <c r="B22" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C22" s="46">
         <f t="shared" si="2"/>
@@ -41980,7 +41980,7 @@
       </c>
       <c r="B23" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C23" s="46">
         <f t="shared" si="2"/>
@@ -41999,7 +41999,7 @@
       </c>
       <c r="B24" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C24" s="46">
         <f t="shared" si="2"/>
@@ -42018,7 +42018,7 @@
       </c>
       <c r="B25" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C25" s="46">
         <f t="shared" si="2"/>
@@ -42037,7 +42037,7 @@
       </c>
       <c r="B26" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C26" s="46">
         <f t="shared" si="2"/>
@@ -42056,7 +42056,7 @@
       </c>
       <c r="B27" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C27" s="46">
         <f t="shared" si="2"/>
@@ -42075,7 +42075,7 @@
       </c>
       <c r="B28" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C28" s="46">
         <f t="shared" si="2"/>
@@ -42094,7 +42094,7 @@
       </c>
       <c r="B29" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C29" s="46">
         <f t="shared" si="2"/>
@@ -42113,7 +42113,7 @@
       </c>
       <c r="B30" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C30" s="46">
         <f t="shared" si="2"/>
@@ -42132,7 +42132,7 @@
       </c>
       <c r="B31" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C31" s="46">
         <f t="shared" si="2"/>
@@ -42151,7 +42151,7 @@
       </c>
       <c r="B32" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C32" s="46">
         <f t="shared" si="2"/>
@@ -42170,7 +42170,7 @@
       </c>
       <c r="B33" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C33" s="46">
         <f t="shared" si="2"/>
@@ -42189,7 +42189,7 @@
       </c>
       <c r="B34" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C34" s="46">
         <f t="shared" si="2"/>
@@ -42208,7 +42208,7 @@
       </c>
       <c r="B35" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C35" s="46">
         <f t="shared" si="2"/>
@@ -42227,7 +42227,7 @@
       </c>
       <c r="B36" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C36" s="46">
         <f t="shared" si="2"/>
@@ -42246,7 +42246,7 @@
       </c>
       <c r="B37" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C37" s="46">
         <f t="shared" si="2"/>
@@ -42265,7 +42265,7 @@
       </c>
       <c r="B38" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C38" s="46">
         <f t="shared" si="2"/>
@@ -42284,7 +42284,7 @@
       </c>
       <c r="B39" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C39" s="46">
         <f t="shared" si="2"/>
@@ -42303,7 +42303,7 @@
       </c>
       <c r="B40" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C40" s="46">
         <f t="shared" si="2"/>
@@ -42322,7 +42322,7 @@
       </c>
       <c r="B41" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C41" s="46">
         <f t="shared" si="2"/>
@@ -42341,7 +42341,7 @@
       </c>
       <c r="B42" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C42" s="46">
         <f t="shared" si="2"/>
@@ -42360,7 +42360,7 @@
       </c>
       <c r="B43" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C43" s="46">
         <f t="shared" si="2"/>
@@ -42379,7 +42379,7 @@
       </c>
       <c r="B44" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C44" s="46">
         <f t="shared" si="2"/>
@@ -42398,7 +42398,7 @@
       </c>
       <c r="B45" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C45" s="46">
         <f t="shared" si="2"/>
@@ -42417,7 +42417,7 @@
       </c>
       <c r="B46" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C46" s="46">
         <f t="shared" si="2"/>
@@ -42436,7 +42436,7 @@
       </c>
       <c r="B47" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C47" s="46">
         <f t="shared" si="2"/>
@@ -42455,7 +42455,7 @@
       </c>
       <c r="B48" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C48" s="46">
         <f t="shared" si="2"/>
@@ -42474,7 +42474,7 @@
       </c>
       <c r="B49" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C49" s="46">
         <f t="shared" si="2"/>
@@ -42493,7 +42493,7 @@
       </c>
       <c r="B50" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C50" s="46">
         <f t="shared" si="2"/>
@@ -42512,7 +42512,7 @@
       </c>
       <c r="B51" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C51" s="46">
         <f t="shared" si="2"/>
@@ -42531,7 +42531,7 @@
       </c>
       <c r="B52" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C52" s="46">
         <f t="shared" si="2"/>
@@ -42550,7 +42550,7 @@
       </c>
       <c r="B53" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C53" s="46">
         <f t="shared" si="2"/>
@@ -42569,7 +42569,7 @@
       </c>
       <c r="B54" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C54" s="46">
         <f t="shared" si="2"/>
@@ -42588,7 +42588,7 @@
       </c>
       <c r="B55" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C55" s="46">
         <f t="shared" si="2"/>
@@ -42607,7 +42607,7 @@
       </c>
       <c r="B56" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C56" s="46">
         <f t="shared" si="2"/>
@@ -42626,7 +42626,7 @@
       </c>
       <c r="B57" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C57" s="46">
         <f t="shared" si="2"/>
@@ -42645,7 +42645,7 @@
       </c>
       <c r="B58" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C58" s="46">
         <f t="shared" si="2"/>
@@ -42664,7 +42664,7 @@
       </c>
       <c r="B59" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C59" s="46">
         <f t="shared" si="2"/>
@@ -42683,7 +42683,7 @@
       </c>
       <c r="B60" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C60" s="46">
         <f t="shared" si="2"/>
@@ -42702,7 +42702,7 @@
       </c>
       <c r="B61" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C61" s="46">
         <f t="shared" si="2"/>
@@ -42721,7 +42721,7 @@
       </c>
       <c r="B62" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C62" s="46">
         <f t="shared" si="2"/>
@@ -42740,7 +42740,7 @@
       </c>
       <c r="B63" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C63" s="46">
         <f t="shared" si="2"/>
@@ -42759,7 +42759,7 @@
       </c>
       <c r="B64" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C64" s="46">
         <f t="shared" si="2"/>
@@ -42778,7 +42778,7 @@
       </c>
       <c r="B65" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C65" s="46">
         <f t="shared" si="2"/>
@@ -42797,7 +42797,7 @@
       </c>
       <c r="B66" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C66" s="46">
         <f t="shared" si="2"/>
@@ -42816,7 +42816,7 @@
       </c>
       <c r="B67" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C67" s="46">
         <f t="shared" si="2"/>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="B68" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C68" s="46">
         <f t="shared" si="2"/>
@@ -42854,7 +42854,7 @@
       </c>
       <c r="B69" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C69" s="46">
         <f t="shared" si="2"/>
@@ -42873,7 +42873,7 @@
       </c>
       <c r="B70" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C70" s="46">
         <f t="shared" si="2"/>
@@ -42892,7 +42892,7 @@
       </c>
       <c r="B71" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C71" s="46">
         <f t="shared" si="2"/>
@@ -42911,7 +42911,7 @@
       </c>
       <c r="B72" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C72" s="46">
         <f t="shared" si="2"/>
@@ -42930,7 +42930,7 @@
       </c>
       <c r="B73" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C73" s="46">
         <f t="shared" si="2"/>
@@ -42949,7 +42949,7 @@
       </c>
       <c r="B74" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C74" s="46">
         <f t="shared" si="2"/>
@@ -42968,7 +42968,7 @@
       </c>
       <c r="B75" s="45">
         <f t="shared" si="1"/>
-        <v>45511.46047</v>
+        <v>45514.41984</v>
       </c>
       <c r="C75" s="46">
         <f t="shared" si="2"/>
